--- a/notebooks/ImportantFeatures.xlsx
+++ b/notebooks/ImportantFeatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\COMP247 SL\Traffic_Collision_Group_1_section_003COMP247Project\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F58B1B5A-A9F1-43A0-AAE0-063B1F9A79DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88338C87-CDD7-426F-8BCE-16E818F48B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11004" yWindow="4524" windowWidth="23040" windowHeight="12120" xr2:uid="{F665C4D0-4743-432C-B5C8-EDBF788A65B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{F665C4D0-4743-432C-B5C8-EDBF788A65B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$D$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="296">
   <si>
     <t>scaler__LATITUDE</t>
   </si>
@@ -915,7 +919,19 @@
     <t>TRSN_CITY_VEH</t>
   </si>
   <si>
-    <t>ROAD_CLASS</t>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Importance</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -960,10 +976,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,6 +1000,1938 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[ImportantFeatures.xlsx]Sheet2!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$2:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>AG_DRIV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ALCOHOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ASSENGER</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CYCLIST</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DAY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DISABILITY</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DISTRICT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EMERG_VEH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IMPACTYPE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>INVAGE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>INVTYPE</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LATITUDE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LIGHT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LOCCOORD</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LONGITUDE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MONTH</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MOTORCYCLE</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PEDESTRIAN</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>RDSFCOND</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>REDLIGHT</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ROAD CLASS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SPEEDING</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>TIME</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TOMOBILE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>TRAFFCTL</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>TRSN_CITY_VEH</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>TRUCK</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>VEHTYPE</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>VISIBILITY</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>YEAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.59518315912339E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.73261829002539E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6154715312684999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0970327400004301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0147752121445701E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.52202603434759E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9344414953464688E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1540029784050501E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8299856949762487E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20575583896837613</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1376427356749016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.58167689164692E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5690429641983311E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8308183865377008E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.75638485149243E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1386178636767499E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4422192108269499E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1049465329402101E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.317397331896062E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0980638178821404E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2743309757585442E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7463804297245003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6529347803339098E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6511746555094801E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.017420975609293E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1570398866535801E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5076876309316697E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4055673943139757E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.1523304827962016E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3649513650228398E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0087-415D-86C1-15BFCC8CD9DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="139808719"/>
+        <c:axId val="397069071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="139808719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397069071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397069071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139808719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0E15A5-26CF-096C-2005-18C3BFCA9A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lok ki yeung" refreshedDate="45019.992367013889" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="141" xr:uid="{B79FDECD-5669-465D-A7B0-2391D0B2BBA5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B142" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Feature" numFmtId="0">
+      <sharedItems count="30">
+        <s v="DISTRICT"/>
+        <s v="IMPACTYPE"/>
+        <s v="INVAGE"/>
+        <s v="INVTYPE"/>
+        <s v="LIGHT"/>
+        <s v="LOCCOORD"/>
+        <s v="RDSFCOND"/>
+        <s v="ROAD CLASS"/>
+        <s v="TRAFFCTL"/>
+        <s v="VEHTYPE"/>
+        <s v="VISIBILITY"/>
+        <s v="LATITUDE"/>
+        <s v="SPEEDING"/>
+        <s v="TRUCK"/>
+        <s v="YEAR"/>
+        <s v="PEDESTRIAN"/>
+        <s v="DAY"/>
+        <s v="LONGITUDE"/>
+        <s v="TIME"/>
+        <s v="AG_DRIV"/>
+        <s v="MONTH"/>
+        <s v="TOMOBILE"/>
+        <s v="ASSENGER"/>
+        <s v="TRSN_CITY_VEH"/>
+        <s v="CYCLIST"/>
+        <s v="REDLIGHT"/>
+        <s v="ALCOHOL"/>
+        <s v="MOTORCYCLE"/>
+        <s v="DISABILITY"/>
+        <s v="EMERG_VEH"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Importance" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="6.9297573426797501E-2"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="141">
+  <r>
+    <x v="0"/>
+    <n v="1.5852266610038499E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8.2868173779865398E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5.2053309654396503E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2.98218756900995E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1.98115922575593E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1.08668018655946E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7.9721700200863707E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7.2661391190445204E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6.5973391801234698E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3.8471283021635099E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1.5064203584053101E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6.1039015668591602E-4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2.4923977483740499E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2.0727854570170502E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.9599259664773699E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.7642106362214301E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.6497557418003801E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.5530198563852E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.47571466330692E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.4685701220778001E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.15734567815122E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8.9847993760388094E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7.5839378457845004E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6.9949060210744004E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.8928207740786701E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4.88023667468916E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4.66081735023574E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4.5720958802248704E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3.6044871991228701E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.2759772516699999E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.0266528252947599E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3.4184907204816201E-4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6.9297573426797501E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2.7000621922909501E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2.4115865967715901E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8.9957697874245204E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3.3409960603411602E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1.74291862414706E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1.4793716958654999E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1.4477224762240301E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1.9797124649854501E-4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1.8171391759181199E-5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.9836421920324496E-6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="7.6943302664616697E-7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1.5084143133632599E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6.7228750735394797E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1.4393100759417E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="9.14047221480694E-4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="7.6289769204995902E-4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="5.1410270977803095E-4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2.4075849452554699E-4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1.22952410353056E-5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1.0198737389638101E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="7.9165821552369207E-3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1.84952005579333E-4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="7.9123149226518293E-6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1.0017537758584801E-2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2.1037379220490101E-3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4.59339226400141E-4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2.4696810665608199E-4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2.1450735499881399E-4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1.3188295027177199E-4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1.45085027106794E-2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="5.4767774836336396E-3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2.6802627100091501E-3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="5.4499136035839597E-5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1.3764831266114E-5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="9.5028859612979992E-6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1.52743677019963E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4.2677152964110997E-3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4.0168637803148199E-4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1.27380295051588E-4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1.0306008460246E-4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2.21408513181931E-2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="4.7507216003171903E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3.4225513933653401E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2.14196074300243E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2.1399672223183998E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1.9351524441586999E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1.5166443977769799E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1.4495693988744601E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1.2147446703217001E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1.1015248817473301E-3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="5.8910471102399003E-4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="4.9627264380603905E-4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="4.0376481069645098E-4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3.8358452800214701E-4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1.6765931926792101E-4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1.3236936654137399E-4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="4.12477789522488E-5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2.7982714773955099E-5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="5.7373650314462704E-3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1.13445387958227E-3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="9.1473907112521902E-4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="3.5854176313163599E-4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="7.2307375108067997E-6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="4.58167689164692E-2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="3.7463804297245003E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="3.5076876309316697E-2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="3.3649513650228398E-2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="3.1049465329402101E-2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="3.0147752121445701E-2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="2.75638485149243E-2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="2.6529347803339098E-2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="2.59518315912339E-2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="2.1386178636767499E-2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="1.6511746555094801E-2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="1.6154715312684999E-2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="1.1570398866535801E-2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="1.0970327400004301E-2"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="7.0980638178821404E-3"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="3.73261829002539E-3"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="3.4422192108269499E-3"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="2.52202603434759E-3"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="2.1540029784050501E-5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{72D83D45-0F52-4462-A80C-A8CD076A9611}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H1:I32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="31">
+        <item x="19"/>
+        <item x="26"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="28"/>
+        <item x="0"/>
+        <item x="29"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="25"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="8"/>
+        <item x="23"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Importance" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,15 +3231,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFBDD8A-19D1-44FF-BDEF-DD198BAA3079}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1307,145 +3261,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>6.9297573426797501E-2</v>
+        <v>1.5852266610038499E-2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>4.58167689164692E-2</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>RIGHT(A3,FIND("__",A3)+1)</f>
-        <v>LATITUDE</v>
+        <v>8.2868173779865398E-3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>3.7463804297245003E-2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>263</v>
+        <v>5.2053309654396503E-3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>3.5076876309316697E-2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>277</v>
+        <v>2.98218756900995E-2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>3.3649513650228398E-2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>276</v>
+        <v>1.98115922575593E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>3.1049465329402101E-2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>275</v>
+        <v>1.08668018655946E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>3.0147752121445701E-2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>274</v>
+        <v>7.9721700200863707E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B9">
-        <v>2.98218756900995E-2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>7.2661391190445204E-3</v>
+      </c>
+      <c r="C9" t="s">
         <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>2.75638485149243E-2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>273</v>
+        <v>6.5973391801234698E-3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B11">
-        <v>2.7000621922909501E-2</v>
+        <v>3.8471283021635099E-3</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B12">
-        <v>2.6529347803339098E-2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>272</v>
+        <v>1.5064203584053101E-3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B13">
-        <v>2.59518315912339E-2</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>6.1039015668591602E-4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1464,1770 +3443,1806 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>2.4115865967715901E-2</v>
+        <v>2.0727854570170502E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>2.21408513181931E-2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>254</v>
+        <v>1.9599259664773699E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>2.1386178636767499E-2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>264</v>
+        <v>1.7642106362214301E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>2.0727854570170502E-2</v>
+        <v>1.6497557418003801E-2</v>
       </c>
       <c r="C18" t="s">
         <v>253</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>1.98115922575593E-2</v>
+        <v>1.5530198563852E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>1.9599259664773699E-2</v>
+        <v>1.47571466330692E-2</v>
       </c>
       <c r="C20" t="s">
         <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>1.7642106362214301E-2</v>
+        <v>1.4685701220778001E-2</v>
       </c>
       <c r="C21" t="s">
         <v>253</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>1.6511746555094801E-2</v>
+        <v>1.15734567815122E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>253</v>
       </c>
       <c r="D22" t="s">
-        <v>265</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>1.6497557418003801E-2</v>
+        <v>8.9847993760388094E-3</v>
       </c>
       <c r="C23" t="s">
         <v>253</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>1.6154715312684999E-2</v>
+        <v>7.5839378457845004E-3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>1.5852266610038499E-2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>255</v>
+        <v>6.9949060210744004E-3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B26">
-        <v>1.5530198563852E-2</v>
+        <v>5.8928207740786701E-3</v>
       </c>
       <c r="C26" t="s">
         <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B27">
-        <v>1.52743677019963E-2</v>
+        <v>4.88023667468916E-3</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B28">
-        <v>1.5084143133632599E-2</v>
+        <v>4.66081735023574E-3</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B29">
-        <v>1.47571466330692E-2</v>
+        <v>4.5720958802248704E-3</v>
       </c>
       <c r="C29" t="s">
         <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B30">
-        <v>1.4685701220778001E-2</v>
+        <v>3.6044871991228701E-3</v>
       </c>
       <c r="C30" t="s">
         <v>253</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B31">
-        <v>1.45085027106794E-2</v>
+        <v>1.2759772516699999E-3</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B32">
-        <v>1.15734567815122E-2</v>
+        <v>1.0266528252947599E-3</v>
       </c>
       <c r="C32" t="s">
         <v>253</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B33">
-        <v>1.1570398866535801E-2</v>
+        <v>3.4184907204816201E-4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>253</v>
       </c>
       <c r="D33" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="B34">
-        <v>1.0970327400004301E-2</v>
+        <v>6.9297573426797501E-2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="D34" t="s">
-        <v>271</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>1.08668018655946E-2</v>
+        <v>2.7000621922909501E-2</v>
       </c>
       <c r="C35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>1.0198737389638101E-2</v>
+        <v>2.4115865967715901E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>1.0017537758584801E-2</v>
+        <v>8.9957697874245204E-3</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B38">
-        <v>8.9957697874245204E-3</v>
+        <v>3.3409960603411602E-3</v>
       </c>
       <c r="C38" t="s">
         <v>251</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B39">
-        <v>8.9847993760388094E-3</v>
+        <v>1.74291862414706E-3</v>
       </c>
       <c r="C39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B40">
-        <v>8.2868173779865398E-3</v>
+        <v>1.4793716958654999E-3</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B41">
-        <v>7.9721700200863707E-3</v>
+        <v>1.4477224762240301E-3</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B42">
-        <v>7.9165821552369207E-3</v>
+        <v>1.9797124649854501E-4</v>
       </c>
       <c r="C42" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>7.5839378457845004E-3</v>
+        <v>99</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.8171391759181199E-5</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D43" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>7.2661391190445204E-3</v>
+        <v>104</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4.9836421920324496E-6</v>
       </c>
       <c r="C44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>7.0980638178821404E-3</v>
+        <v>105</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7.6943302664616697E-7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="B46">
-        <v>6.9949060210744004E-3</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B47">
-        <v>6.7228750735394797E-3</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B48">
-        <v>6.5973391801234698E-3</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="B49">
-        <v>5.8928207740786701E-3</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="B50">
-        <v>5.7373650314462704E-3</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="B51">
-        <v>5.4767774836336396E-3</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B52">
-        <v>5.2053309654396503E-3</v>
+        <v>1.5084143133632599E-2</v>
       </c>
       <c r="C52" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B53">
-        <v>4.88023667468916E-3</v>
+        <v>6.7228750735394797E-3</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B54">
-        <v>4.7507216003171903E-3</v>
+        <v>1.4393100759417E-3</v>
       </c>
       <c r="C54" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D54" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B55">
-        <v>4.66081735023574E-3</v>
+        <v>9.14047221480694E-4</v>
       </c>
       <c r="C55" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B56">
-        <v>4.5720958802248704E-3</v>
+        <v>7.6289769204995902E-4</v>
       </c>
       <c r="C56" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="B57">
-        <v>4.2677152964110997E-3</v>
+        <v>5.1410270977803095E-4</v>
       </c>
       <c r="C57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="B58">
-        <v>3.8471283021635099E-3</v>
+        <v>2.4075849452554699E-4</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59">
-        <v>3.73261829002539E-3</v>
+        <v>101</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.22952410353056E-5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>257</v>
       </c>
       <c r="D59" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B60">
-        <v>3.6044871991228701E-3</v>
+        <v>1.0198737389638101E-2</v>
       </c>
       <c r="C60" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>3.4422192108269499E-3</v>
+        <v>7.9165821552369207E-3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>258</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B62">
-        <v>3.4225513933653401E-3</v>
+        <v>1.84952005579333E-4</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63">
-        <v>3.3409960603411602E-3</v>
+        <v>132</v>
+      </c>
+      <c r="B63" s="1">
+        <v>7.9123149226518293E-6</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B64">
-        <v>2.6802627100091501E-3</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B65">
-        <v>2.52202603434759E-3</v>
+        <v>1.0017537758584801E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>259</v>
       </c>
       <c r="D65" t="s">
-        <v>268</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>2.14196074300243E-3</v>
+        <v>2.1037379220490101E-3</v>
       </c>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D66" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B67">
-        <v>2.1399672223183998E-3</v>
+        <v>4.59339226400141E-4</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B68">
-        <v>2.1037379220490101E-3</v>
+        <v>2.4696810665608199E-4</v>
       </c>
       <c r="C68" t="s">
         <v>259</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B69">
-        <v>1.9351524441586999E-3</v>
+        <v>2.1450735499881399E-4</v>
       </c>
       <c r="C69" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D69" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B70">
-        <v>1.74291862414706E-3</v>
+        <v>1.3188295027177199E-4</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B71">
-        <v>1.5166443977769799E-3</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B72">
-        <v>1.5064203584053101E-3</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>1.4793716958654999E-3</v>
+        <v>1.45085027106794E-2</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D73" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B74">
-        <v>1.4495693988744601E-3</v>
+        <v>5.4767774836336396E-3</v>
       </c>
       <c r="C74" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B75">
-        <v>1.4477224762240301E-3</v>
+        <v>2.6802627100091501E-3</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76">
-        <v>1.4393100759417E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B76" s="1">
+        <v>5.4499136035839597E-5</v>
       </c>
       <c r="C76" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77">
-        <v>1.2759772516699999E-3</v>
+        <v>100</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1.3764831266114E-5</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78">
-        <v>1.2147446703217001E-3</v>
+        <v>102</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9.5028859612979992E-6</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B79">
-        <v>1.13445387958227E-3</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="D79" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B80">
-        <v>1.1015248817473301E-3</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="B81">
-        <v>1.0266528252947599E-3</v>
+        <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="D81" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B82">
-        <v>9.1473907112521902E-4</v>
+        <v>1.52743677019963E-2</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D82" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B83">
-        <v>9.14047221480694E-4</v>
+        <v>4.2677152964110997E-3</v>
       </c>
       <c r="C83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D83" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>7.6289769204995902E-4</v>
+        <v>4.0168637803148199E-4</v>
       </c>
       <c r="C84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>6.1039015668591602E-4</v>
+        <v>1.27380295051588E-4</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>5.8910471102399003E-4</v>
+        <v>1.0306008460246E-4</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B87">
-        <v>5.1410270977803095E-4</v>
+        <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B88">
-        <v>4.9627264380603905E-4</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="B89">
-        <v>4.59339226400141E-4</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B90">
-        <v>4.0376481069645098E-4</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B91">
-        <v>4.0168637803148199E-4</v>
+        <v>2.21408513181931E-2</v>
       </c>
       <c r="C91" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B92">
-        <v>3.8358452800214701E-4</v>
+        <v>4.7507216003171903E-3</v>
       </c>
       <c r="C92" t="s">
         <v>254</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="B93">
-        <v>3.5854176313163599E-4</v>
+        <v>3.4225513933653401E-3</v>
       </c>
       <c r="C93" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B94">
-        <v>3.4184907204816201E-4</v>
+        <v>2.14196074300243E-3</v>
       </c>
       <c r="C94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D94" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B95">
-        <v>2.4696810665608199E-4</v>
+        <v>2.1399672223183998E-3</v>
       </c>
       <c r="C95" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D95" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="B96">
-        <v>2.4075849452554699E-4</v>
+        <v>1.9351524441586999E-3</v>
       </c>
       <c r="C96" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D96" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B97">
-        <v>2.1450735499881399E-4</v>
+        <v>1.5166443977769799E-3</v>
       </c>
       <c r="C97" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D97" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B98">
-        <v>1.9797124649854501E-4</v>
+        <v>1.4495693988744601E-3</v>
       </c>
       <c r="C98" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B99">
-        <v>1.84952005579333E-4</v>
+        <v>1.2147446703217001E-3</v>
       </c>
       <c r="C99" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B100">
-        <v>1.6765931926792101E-4</v>
+        <v>1.1015248817473301E-3</v>
       </c>
       <c r="C100" t="s">
         <v>254</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B101">
-        <v>1.3236936654137399E-4</v>
+        <v>5.8910471102399003E-4</v>
       </c>
       <c r="C101" t="s">
         <v>254</v>
       </c>
       <c r="D101" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B102">
-        <v>1.3188295027177199E-4</v>
+        <v>4.9627264380603905E-4</v>
       </c>
       <c r="C102" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D102" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B103">
-        <v>1.27380295051588E-4</v>
+        <v>4.0376481069645098E-4</v>
       </c>
       <c r="C103" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D103" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B104">
-        <v>1.0306008460246E-4</v>
+        <v>3.8358452800214701E-4</v>
       </c>
       <c r="C104" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D104" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" s="1">
-        <v>5.4499136035839597E-5</v>
+        <v>133</v>
+      </c>
+      <c r="B105">
+        <v>1.6765931926792101E-4</v>
       </c>
       <c r="C105" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="1">
-        <v>4.12477789522488E-5</v>
+        <v>91</v>
+      </c>
+      <c r="B106">
+        <v>1.3236936654137399E-4</v>
       </c>
       <c r="C106" t="s">
         <v>254</v>
       </c>
       <c r="D106" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" s="1">
-        <v>2.7982714773955099E-5</v>
+        <v>4.12477789522488E-5</v>
       </c>
       <c r="C107" t="s">
         <v>254</v>
       </c>
       <c r="D107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B108" s="1">
-        <v>2.1540029784050501E-5</v>
+        <v>2.7982714773955099E-5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>254</v>
       </c>
       <c r="D108" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" s="1">
-        <v>1.8171391759181199E-5</v>
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D109" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>100</v>
-      </c>
-      <c r="B110" s="1">
-        <v>1.3764831266114E-5</v>
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D110" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="1">
-        <v>1.22952410353056E-5</v>
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>102</v>
-      </c>
-      <c r="B112" s="1">
-        <v>9.5028859612979992E-6</v>
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>132</v>
-      </c>
-      <c r="B113" s="1">
-        <v>7.9123149226518293E-6</v>
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D113" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>103</v>
-      </c>
-      <c r="B114" s="1">
-        <v>7.2307375108067997E-6</v>
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D114" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>104</v>
-      </c>
-      <c r="B115" s="1">
-        <v>4.9836421920324496E-6</v>
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D115" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>105</v>
-      </c>
-      <c r="B116" s="1">
-        <v>7.6943302664616697E-7</v>
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D116" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>5.7373650314462704E-3</v>
       </c>
       <c r="C117" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D117" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1.13445387958227E-3</v>
       </c>
       <c r="C118" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D118" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>9.1473907112521902E-4</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D119" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>3.5854176313163599E-4</v>
       </c>
       <c r="C120" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D120" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>130</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="B121" s="1">
+        <v>7.2307375108067997E-6</v>
       </c>
       <c r="C121" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D121" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D122" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D123" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>4.58167689164692E-2</v>
       </c>
       <c r="C124" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D124" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>3.7463804297245003E-2</v>
       </c>
       <c r="C125" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D125" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>3.5076876309316697E-2</v>
       </c>
       <c r="C126" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D126" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>3.3649513650228398E-2</v>
       </c>
       <c r="C127" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D127" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>3.1049465329402101E-2</v>
       </c>
       <c r="C128" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D128" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>3.0147752121445701E-2</v>
       </c>
       <c r="C129" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D129" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>2.75638485149243E-2</v>
       </c>
       <c r="C130" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="D130" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>2.6529347803339098E-2</v>
       </c>
       <c r="C131" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D131" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>2.59518315912339E-2</v>
       </c>
       <c r="C132" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="D132" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>2.1386178636767499E-2</v>
       </c>
       <c r="C133" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D133" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1.6511746555094801E-2</v>
       </c>
       <c r="C134" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D134" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1.6154715312684999E-2</v>
       </c>
       <c r="C135" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D135" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1.1570398866535801E-2</v>
       </c>
       <c r="C136" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="D136" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1.0970327400004301E-2</v>
       </c>
       <c r="C137" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D137" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>7.0980638178821404E-3</v>
       </c>
       <c r="C138" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D138" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>3.73261829002539E-3</v>
       </c>
       <c r="C139" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D139" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>3.4422192108269499E-3</v>
       </c>
       <c r="C140" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D140" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>2.52202603434759E-3</v>
       </c>
       <c r="C141" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D141" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>125</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2.1540029784050501E-5</v>
       </c>
       <c r="C142" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="D142" t="s">
-        <v>244</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143">
+        <f>SUM(B2:B142)</f>
+        <v>0.99999999999999789</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D142" xr:uid="{BCFBDD8A-19D1-44FF-BDEF-DD198BAA3079}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D142">
-      <sortCondition descending="1" ref="B1:B142"/>
+      <sortCondition ref="C1:C142"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3237,171 +5252,1660 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68B49D7-9C07-4288-9CFA-ACE78B0755F1}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>251</v>
+      <c r="A1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="B2">
+        <v>1.5852266610038499E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2">
+        <v>0.20575583896837613</v>
+      </c>
+      <c r="F2">
+        <f>E2*100</f>
+        <v>20.575583896837614</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.59518315912339E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="B3">
+        <v>8.2868173779865398E-3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3">
+        <v>0.1376427356749016</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F31" si="0">E3*100</f>
+        <v>13.764273567490159</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3.73261829002539E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="B4">
+        <v>5.2053309654396503E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4">
+        <v>8.8299856949762487E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>8.8299856949762479</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.6154715312684999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="B5">
+        <v>2.98218756900995E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5">
+        <v>4.58167689164692E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.5816768916469197</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.0970327400004301E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" t="s">
-        <v>256</v>
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <v>1.98115922575593E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6">
+        <v>4.4055673943139757E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.4055673943139757</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3.0147752121445701E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="B7">
+        <v>1.08668018655946E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7">
+        <v>3.7463804297245003E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.7463804297245002</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2.52202603434759E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I8" t="s">
-        <v>278</v>
+        <v>252</v>
+      </c>
+      <c r="B8">
+        <v>7.9721700200863707E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8">
+        <v>3.5076876309316697E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3.5076876309316698</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2.9344414953464688E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>258</v>
-      </c>
-      <c r="I9" t="s">
-        <v>258</v>
+        <v>252</v>
+      </c>
+      <c r="B9">
+        <v>7.2661391190445204E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9">
+        <v>3.3649513650228398E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3.36495136502284</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2.1540029784050501E-5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10">
+        <v>6.5973391801234698E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10">
+        <v>3.1049465329402101E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.1049465329402102</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="5">
+        <v>8.8299856949762487E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11">
+        <v>3.8471283021635099E-3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11">
+        <v>3.0147752121445701E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3.0147752121445701</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.20575583896837613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12">
+        <v>1.5064203584053101E-3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>2.9344414953464688E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.9344414953464688</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.1376427356749016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13">
+        <v>6.1039015668591602E-4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13">
+        <v>2.75638485149243E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.7563848514924301</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13" s="5">
+        <v>4.58167689164692E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14">
+        <v>2.4923977483740499E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14">
+        <v>2.6529347803339098E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2.6529347803339096</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2.5690429641983311E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15">
+        <v>2.0727854570170502E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15">
+        <v>2.59518315912339E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.59518315912339</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1.8308183865377008E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16">
+        <v>1.9599259664773699E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16">
+        <v>2.5690429641983311E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2.569042964198331</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2.75638485149243E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17">
+        <v>1.7642106362214301E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17">
+        <v>2.2743309757585442E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2.2743309757585441</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2.1386178636767499E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18">
+        <v>1.6497557418003801E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18">
+        <v>2.1386178636767499E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2.1386178636767497</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3.4422192108269499E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19">
+        <v>1.5530198563852E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19">
+        <v>2.017420975609293E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2.0174209756092929</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3.1049465329402101E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20">
+        <v>1.47571466330692E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20">
+        <v>1.8308183865377008E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.8308183865377008</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I20" s="5">
+        <v>1.317397331896062E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21">
+        <v>1.4685701220778001E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21">
+        <v>1.6511746555094801E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.6511746555094802</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="5">
+        <v>7.0980638178821404E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22">
+        <v>1.15734567815122E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22">
+        <v>1.6154715312684999E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.6154715312685</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2.2743309757585442E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23">
+        <v>8.9847993760388094E-3</v>
+      </c>
+      <c r="D23" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+      <c r="E23">
+        <v>1.317397331896062E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.3173973318960621</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I23" s="5">
+        <v>3.7463804297245003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24">
+        <v>7.5839378457845004E-3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24">
+        <v>1.1570398866535801E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.15703988665358</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2.6529347803339098E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25">
+        <v>6.9949060210744004E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25">
+        <v>1.0970327400004301E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.0970327400004301</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1.6511746555094801E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26">
+        <v>5.8928207740786701E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26">
+        <v>8.1523304827962016E-3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.81523304827962018</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2.017420975609293E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27">
+        <v>4.88023667468916E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27">
+        <v>7.0980638178821404E-3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.70980638178821409</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.1570398866535801E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28">
+        <v>4.66081735023574E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28">
+        <v>3.73261829002539E-3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.37326182900253901</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="5">
+        <v>3.5076876309316697E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29">
+        <v>4.5720958802248704E-3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29">
+        <v>3.4422192108269499E-3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.344221921082695</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I29" s="5">
+        <v>4.4055673943139757E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30">
+        <v>3.6044871991228701E-3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30">
+        <v>2.52202603434759E-3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.25220260343475898</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I30" s="5">
+        <v>8.1523304827962016E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31">
+        <v>1.2759772516699999E-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31">
+        <v>2.1540029784050501E-5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2.15400297840505E-3</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I31" s="5">
+        <v>3.3649513650228398E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32">
+        <v>1.0266528252947599E-3</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.99999999999999822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33">
+        <v>3.4184907204816201E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34">
+        <v>6.9297573426797501E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35">
+        <v>2.7000621922909501E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36">
+        <v>2.4115865967715901E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37">
+        <v>8.9957697874245204E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38">
+        <v>3.3409960603411602E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39">
+        <v>1.74291862414706E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40">
+        <v>1.4793716958654999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>251</v>
+      </c>
+      <c r="B41">
+        <v>1.4477224762240301E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42">
+        <v>1.9797124649854501E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43">
+        <v>1.8171391759181199E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44">
+        <v>4.9836421920324496E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45">
+        <v>7.6943302664616697E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>251</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52">
+        <v>1.5084143133632599E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53">
+        <v>6.7228750735394797E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54">
+        <v>1.4393100759417E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55">
+        <v>9.14047221480694E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56">
+        <v>7.6289769204995902E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57">
+        <v>5.1410270977803095E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58">
+        <v>2.4075849452554699E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59">
+        <v>1.22952410353056E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60">
+        <v>1.0198737389638101E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61">
+        <v>7.9165821552369207E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62">
+        <v>1.84952005579333E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63">
+        <v>7.9123149226518293E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>259</v>
+      </c>
+      <c r="B65">
+        <v>1.0017537758584801E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66">
+        <v>2.1037379220490101E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67">
+        <v>4.59339226400141E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68">
+        <v>2.4696810665608199E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>259</v>
+      </c>
+      <c r="B69">
+        <v>2.1450735499881399E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>259</v>
+      </c>
+      <c r="B70">
+        <v>1.3188295027177199E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>278</v>
+      </c>
+      <c r="B73">
+        <v>1.45085027106794E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74">
+        <v>5.4767774836336396E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>278</v>
+      </c>
+      <c r="B75">
+        <v>2.6802627100091501E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>278</v>
+      </c>
+      <c r="B76">
+        <v>5.4499136035839597E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>278</v>
+      </c>
+      <c r="B77">
+        <v>1.3764831266114E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78">
+        <v>9.5028859612979992E-6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>278</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>256</v>
+      </c>
+      <c r="B82">
+        <v>1.52743677019963E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83">
+        <v>4.2677152964110997E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84">
+        <v>4.0168637803148199E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85">
+        <v>1.27380295051588E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86">
+        <v>1.0306008460246E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91">
+        <v>2.21408513181931E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>254</v>
+      </c>
+      <c r="B92">
+        <v>4.7507216003171903E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93">
+        <v>3.4225513933653401E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94">
+        <v>2.14196074300243E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95">
+        <v>2.1399672223183998E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96">
+        <v>1.9351524441586999E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>254</v>
+      </c>
+      <c r="B97">
+        <v>1.5166443977769799E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>254</v>
+      </c>
+      <c r="B98">
+        <v>1.4495693988744601E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>254</v>
+      </c>
+      <c r="B99">
+        <v>1.2147446703217001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>254</v>
+      </c>
+      <c r="B100">
+        <v>1.1015248817473301E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101">
+        <v>5.8910471102399003E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>254</v>
+      </c>
+      <c r="B102">
+        <v>4.9627264380603905E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103">
+        <v>4.0376481069645098E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>254</v>
+      </c>
+      <c r="B104">
+        <v>3.8358452800214701E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105">
+        <v>1.6765931926792101E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106">
+        <v>1.3236936654137399E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107">
+        <v>4.12477789522488E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>254</v>
+      </c>
+      <c r="B108">
+        <v>2.7982714773955099E-5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>254</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>254</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>254</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>254</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>260</v>
+      </c>
+      <c r="B117">
+        <v>5.7373650314462704E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118">
+        <v>1.13445387958227E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>260</v>
+      </c>
+      <c r="B119">
+        <v>9.1473907112521902E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120">
+        <v>3.5854176313163599E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121">
+        <v>7.2307375108067997E-6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>260</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>287</v>
       </c>
-      <c r="I11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
+      <c r="B124">
+        <v>4.58167689164692E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+      <c r="B125">
+        <v>3.7463804297245003E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
+      <c r="B126">
+        <v>3.5076876309316697E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
+      <c r="B127">
+        <v>3.3649513650228398E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
+      <c r="B128">
+        <v>3.1049465329402101E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="B129">
+        <v>3.0147752121445701E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+      <c r="B130">
+        <v>2.75638485149243E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B131">
+        <v>2.6529347803339098E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="B132">
+        <v>2.59518315912339E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B133">
+        <v>2.1386178636767499E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B134">
+        <v>1.6511746555094801E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B135">
+        <v>1.6154715312684999E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B136">
+        <v>1.1570398866535801E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>271</v>
       </c>
+      <c r="B137">
+        <v>1.0970327400004301E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138">
+        <v>7.0980638178821404E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139">
+        <v>3.73261829002539E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140">
+        <v>3.4422192108269499E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>268</v>
+      </c>
+      <c r="B141">
+        <v>2.52202603434759E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>288</v>
+      </c>
+      <c r="B142">
+        <v>2.1540029784050501E-5</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:F31" xr:uid="{A68B49D7-9C07-4288-9CFA-ACE78B0755F1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>